--- a/datasets/groupby_test.xlsx
+++ b/datasets/groupby_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\grufoony\uisp\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9304D687-7164-4C1B-819C-1A02D5A32C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBE844F-8AD7-45E4-A1B3-67ED70F30BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="1725" windowWidth="21600" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t xml:space="preserve"> 01'24"80 </t>
   </si>
   <si>
-    <t xml:space="preserve"> F </t>
-  </si>
-  <si>
     <t xml:space="preserve"> EA2 </t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t xml:space="preserve">ROSSI MARIO </t>
   </si>
   <si>
-    <t xml:space="preserve">ROSI MARIA </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Aosta</t>
   </si>
   <si>
@@ -102,20 +96,40 @@
     <t xml:space="preserve">ROSSI  MARIO </t>
   </si>
   <si>
-    <t xml:space="preserve"> S</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 01'22"80 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T</t>
+  </si>
+  <si>
+    <t>ROSI LUIGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROSI LUIGI </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,8 +155,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -423,20 +438,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1">
         <v>2013</v>
@@ -451,10 +466,10 @@
         <v>50</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1">
         <v>34</v>
@@ -496,9 +511,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>2013</v>
@@ -513,10 +528,10 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>27</v>
@@ -558,9 +573,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2013</v>
@@ -575,10 +590,10 @@
         <v>200</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -620,9 +635,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>2013</v>
@@ -637,10 +652,10 @@
         <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>27</v>
@@ -652,7 +667,7 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -682,27 +697,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>2011</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -711,11 +726,11 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
       <c r="L5">
         <v>1</v>
       </c>
@@ -723,16 +738,16 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5" t="s">
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5">
         <v>10</v>
-      </c>
-      <c r="Q5">
-        <v>30</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -744,27 +759,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>2011</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>23</v>
@@ -773,10 +788,10 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
         <v>13</v>
-      </c>
-      <c r="K6" t="s">
-        <v>14</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -791,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="R6">
         <v>2</v>
@@ -806,7 +821,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>